--- a/Final Questions/Final Questions.xlsx
+++ b/Final Questions/Final Questions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juani\OneDrive\Documents\06 UofT - Data Analytics Bootcamp\20 Final Project\FinalProject_RoadTrippr\Final Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F405AEB-3B8E-4090-9E55-349FC73D92E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40414E-5CBC-41F1-A859-31D721AC6E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final" sheetId="3" r:id="rId1"/>
+    <sheet name="Final " sheetId="4" r:id="rId1"/>
     <sheet name="Draft" sheetId="2" r:id="rId2"/>
     <sheet name="Clusters Overview" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>Personality</t>
   </si>
@@ -56,18 +56,6 @@
     <t>A stay at an all-inclusive resort by the beach</t>
   </si>
   <si>
-    <t>Cluster 1</t>
-  </si>
-  <si>
-    <t>Cluster 0</t>
-  </si>
-  <si>
-    <t>Cluster 2</t>
-  </si>
-  <si>
-    <t>Cluster 3</t>
-  </si>
-  <si>
     <t>1. You tend to make new friends frequently</t>
   </si>
   <si>
@@ -122,35 +110,50 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Beaches</t>
-  </si>
-  <si>
     <t>Cluster</t>
   </si>
   <si>
-    <t>Burger-Pizza</t>
-  </si>
-  <si>
-    <t>View Points</t>
-  </si>
-  <si>
     <t>Eating is an experience I enjoy as long as there is pizza or burger involved</t>
   </si>
   <si>
-    <t>Dance Clubs</t>
-  </si>
-  <si>
     <t>It is not considered vacation without a night out of dancing at a club</t>
   </si>
   <si>
     <t>You prefer group activities</t>
+  </si>
+  <si>
+    <t>CLUSTER 1</t>
+  </si>
+  <si>
+    <t>CLUSTER 2</t>
+  </si>
+  <si>
+    <t>CLUSTER 3</t>
+  </si>
+  <si>
+    <t>CLUSTER 4</t>
+  </si>
+  <si>
+    <t>Eating is an experience I enjoy at any fine dining restaurant</t>
+  </si>
+  <si>
+    <t>DRAFT2</t>
+  </si>
+  <si>
+    <t>Having a vivid imagination is an everyday habit</t>
+  </si>
+  <si>
+    <t>Try to attend without missing the best theatre shows in town</t>
+  </si>
+  <si>
+    <t>Group activities are the best way to spend a weekend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +183,26 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -240,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -257,6 +273,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,23 +311,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>563922</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167701</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1844197</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>335578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EC364B-7BBD-4509-992A-087332FDC150}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5483F2-AD69-4ED0-B18B-4727B3CA3671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -311,7 +343,244 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7612380" y="190500"/>
+          <a:off x="30480" y="182880"/>
+          <a:ext cx="1813717" cy="3444538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1813717</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>343202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95987E7E-0244-4F7B-9B9D-BFAFE6D8CB3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484120" y="152400"/>
+          <a:ext cx="1813717" cy="3482642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1821337</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>320335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0FE9BE-9A20-4F10-A587-4C0C503DC500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930140" y="205740"/>
+          <a:ext cx="1813717" cy="3406435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1828958</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>350818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A4DEB1-A3B9-49BA-813D-F3E4F79BFB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7345680" y="205740"/>
+          <a:ext cx="1828958" cy="3436918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1821180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8C514D-EFE0-4789-990A-B53187AE0663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7620" y="3474720"/>
+          <a:ext cx="9204960" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="487722" cy="708721"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE452840-88AE-4528-B5AD-F0DD9E81907A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7045326" y="198121"/>
           <a:ext cx="487722" cy="708721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -320,11 +589,11 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -652,203 +921,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B202C3-BF38-4832-8806-3879416D15D2}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B891C6A-C3EB-41E8-802E-738EC15DA3BA}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="K10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="F20" s="12"/>
+      <c r="G20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -859,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41838BE-A7DC-435A-B90E-347CDE2214CE}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -871,25 +1184,42 @@
     <col min="2" max="2" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1"/>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -900,13 +1230,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -917,13 +1264,30 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -934,13 +1298,30 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -951,13 +1332,30 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -968,13 +1366,30 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -982,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -990,8 +1405,25 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -999,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -1007,16 +1439,33 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>1</v>
@@ -1024,16 +1473,33 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>1</v>
@@ -1041,156 +1507,158 @@
       <c r="E10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="AB1:AC4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="29" max="29" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="28:29" x14ac:dyDescent="0.3">
-      <c r="AB1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="28:29" x14ac:dyDescent="0.3">
-      <c r="AB2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="28:29" x14ac:dyDescent="0.3">
-      <c r="AB3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="28:29" x14ac:dyDescent="0.3">
-      <c r="AB4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Final Questions/Final Questions.xlsx
+++ b/Final Questions/Final Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juani\OneDrive\Documents\06 UofT - Data Analytics Bootcamp\20 Final Project\FinalProject_RoadTrippr\Final Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40414E-5CBC-41F1-A859-31D721AC6E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D69A85-204B-4809-830F-A80E742CD03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Personality</t>
   </si>
@@ -134,9 +134,6 @@
     <t>CLUSTER 4</t>
   </si>
   <si>
-    <t>Eating is an experience I enjoy at any fine dining restaurant</t>
-  </si>
-  <si>
     <t>DRAFT2</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>Group activities are the best way to spend a weekend</t>
+  </si>
+  <si>
+    <t>You fancy going to pubs, bars, restaurants while I can also enjoy shopping and going to organized attractions</t>
+  </si>
+  <si>
+    <t>You would be quite happy to enjoy a cafe or baked good before hading to a beautiful view-point, church, monument or garden</t>
   </si>
 </sst>
 </file>
@@ -924,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B891C6A-C3EB-41E8-802E-738EC15DA3BA}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +942,7 @@
     <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="2.44140625" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="100.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
@@ -976,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K2" s="3" t="b">
         <v>0</v>
@@ -993,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="3" t="b">
         <v>0</v>
@@ -1010,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="b">
         <v>0</v>
@@ -1112,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="b">
         <v>1</v>
@@ -1129,30 +1132,30 @@
         <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="K11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="10" t="s">
@@ -1205,7 +1208,7 @@
       </c>
       <c r="G1"/>
       <c r="H1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>

--- a/Final Questions/Final Questions.xlsx
+++ b/Final Questions/Final Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juani\OneDrive\Documents\06 UofT - Data Analytics Bootcamp\20 Final Project\FinalProject_RoadTrippr\Final Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D69A85-204B-4809-830F-A80E742CD03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93E255-4ABA-4066-82D0-5D0E1799F886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Personality</t>
   </si>
@@ -149,14 +149,20 @@
     <t>You fancy going to pubs, bars, restaurants while I can also enjoy shopping and going to organized attractions</t>
   </si>
   <si>
-    <t>You would be quite happy to enjoy a cafe or baked good before hading to a beautiful view-point, church, monument or garden</t>
+    <t>If a user gives  a not useful answer, default to cluster 3</t>
+  </si>
+  <si>
+    <t>Remarks:</t>
+  </si>
+  <si>
+    <t>You would be quite happy to enjoy a cafe or baked goods before heading to a beautiful view-point, church, monument or garden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +199,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,6 +313,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,67 +513,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1821180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>320040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8C514D-EFE0-4789-990A-B53187AE0663}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7620" y="3474720"/>
-          <a:ext cx="9204960" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -955,7 +921,7 @@
       <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1013,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="3" t="b">
         <v>0</v>
@@ -1142,6 +1108,16 @@
       </c>
       <c r="M11" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1131,7 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="10" t="s">
